--- a/team_specific_matrix/American_B.xlsx
+++ b/team_specific_matrix/American_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1877934272300469</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="C2">
-        <v>0.5258215962441315</v>
+        <v>0.5378787878787878</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0187793427230047</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1314553990610329</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.136150234741784</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C3">
-        <v>0.04273504273504274</v>
+        <v>0.05960264900662252</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0170940170940171</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6495726495726496</v>
+        <v>0.6754966887417219</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2905982905982906</v>
+        <v>0.2450331125827815</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0303030303030303</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2558139534883721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05263157894736842</v>
+        <v>0.04797047970479705</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008097165991902834</v>
+        <v>0.007380073800738007</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1133603238866397</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.242914979757085</v>
+        <v>0.2177121771217712</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008097165991902834</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1012145748987854</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="R6">
-        <v>0.0931174089068826</v>
+        <v>0.1033210332103321</v>
       </c>
       <c r="S6">
-        <v>0.3805668016194332</v>
+        <v>0.3874538745387454</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09770114942528736</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01724137931034483</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="E7">
-        <v>0.005747126436781609</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="F7">
-        <v>0.05747126436781609</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1379310344827586</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02873563218390805</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1264367816091954</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="R7">
-        <v>0.1264367816091954</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="S7">
-        <v>0.4022988505747127</v>
+        <v>0.3615819209039548</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09762532981530343</v>
+        <v>0.1075</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02110817941952507</v>
+        <v>0.02</v>
       </c>
       <c r="E8">
-        <v>0.002638522427440633</v>
+        <v>0.0025</v>
       </c>
       <c r="F8">
-        <v>0.06860158311345646</v>
+        <v>0.05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1213720316622691</v>
+        <v>0.1025</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01319261213720317</v>
+        <v>0.0125</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1240105540897098</v>
+        <v>0.1525</v>
       </c>
       <c r="R8">
-        <v>0.1029023746701847</v>
+        <v>0.1125</v>
       </c>
       <c r="S8">
-        <v>0.4485488126649076</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05263157894736842</v>
+        <v>0.06477732793522267</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01754385964912281</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="E9">
-        <v>0.004385964912280702</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="F9">
-        <v>0.06578947368421052</v>
+        <v>0.0728744939271255</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1184210526315789</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02192982456140351</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1491228070175439</v>
+        <v>0.1700404858299595</v>
       </c>
       <c r="R9">
-        <v>0.09649122807017543</v>
+        <v>0.09716599190283401</v>
       </c>
       <c r="S9">
-        <v>0.4736842105263158</v>
+        <v>0.4696356275303644</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1077669902912621</v>
+        <v>0.101095197978096</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01650485436893204</v>
+        <v>0.02190395956192081</v>
       </c>
       <c r="E10">
-        <v>0.002912621359223301</v>
+        <v>0.002527379949452401</v>
       </c>
       <c r="F10">
-        <v>0.09223300970873786</v>
+        <v>0.09267059814658804</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09611650485436893</v>
+        <v>0.09435551811288964</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007766990291262136</v>
+        <v>0.006739679865206402</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1932038834951456</v>
+        <v>0.2055602358887953</v>
       </c>
       <c r="R10">
-        <v>0.1038834951456311</v>
+        <v>0.1069924178601516</v>
       </c>
       <c r="S10">
-        <v>0.3796116504854369</v>
+        <v>0.3681550126368998</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2262443438914027</v>
+        <v>0.1814671814671815</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07239819004524888</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K11">
-        <v>0.1990950226244344</v>
+        <v>0.1969111969111969</v>
       </c>
       <c r="L11">
-        <v>0.4841628959276018</v>
+        <v>0.5366795366795367</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01809954751131222</v>
+        <v>0.003861003861003861</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7664233576642335</v>
+        <v>0.7152777777777778</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1605839416058394</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K12">
-        <v>0.0145985401459854</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="L12">
-        <v>0.0218978102189781</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0364963503649635</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0196078431372549</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G13">
-        <v>0.6078431372549019</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2941176470588235</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07843137254901961</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03317535545023697</v>
+        <v>0.02</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1516587677725119</v>
+        <v>0.156</v>
       </c>
       <c r="I15">
-        <v>0.1232227488151659</v>
+        <v>0.116</v>
       </c>
       <c r="J15">
-        <v>0.3838862559241706</v>
+        <v>0.384</v>
       </c>
       <c r="K15">
-        <v>0.06635071090047394</v>
+        <v>0.064</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009478672985781991</v>
+        <v>0.012</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09004739336492891</v>
+        <v>0.104</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1421800947867299</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01666666666666667</v>
+        <v>0.01875</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0.1</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="J16">
-        <v>0.4083333333333333</v>
+        <v>0.43125</v>
       </c>
       <c r="K16">
-        <v>0.1083333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08333333333333333</v>
+        <v>0.08125</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1583333333333333</v>
+        <v>0.13125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03067484662576687</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1625766871165644</v>
+        <v>0.1650246305418719</v>
       </c>
       <c r="I17">
-        <v>0.09815950920245399</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="J17">
-        <v>0.4202453987730062</v>
+        <v>0.3940886699507389</v>
       </c>
       <c r="K17">
-        <v>0.0736196319018405</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01840490797546012</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06748466257668712</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1288343558282209</v>
+        <v>0.145320197044335</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02347417840375587</v>
+        <v>0.0321285140562249</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.215962441314554</v>
+        <v>0.2008032128514056</v>
       </c>
       <c r="I18">
-        <v>0.09859154929577464</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="J18">
-        <v>0.3380281690140845</v>
+        <v>0.357429718875502</v>
       </c>
       <c r="K18">
-        <v>0.07981220657276995</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02816901408450704</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1126760563380282</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1032863849765258</v>
+        <v>0.1044176706827309</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02464788732394366</v>
+        <v>0.01537216828478964</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1901408450704225</v>
+        <v>0.1868932038834951</v>
       </c>
       <c r="I19">
-        <v>0.1161971830985915</v>
+        <v>0.1108414239482201</v>
       </c>
       <c r="J19">
-        <v>0.3573943661971831</v>
+        <v>0.3689320388349515</v>
       </c>
       <c r="K19">
-        <v>0.08010563380281691</v>
+        <v>0.09304207119741101</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02904929577464789</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="N19">
-        <v>0.0008802816901408451</v>
+        <v>0.0008090614886731392</v>
       </c>
       <c r="O19">
-        <v>0.08450704225352113</v>
+        <v>0.09385113268608414</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1170774647887324</v>
+        <v>0.1059870550161812</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/American_B.xlsx
+++ b/team_specific_matrix/American_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1931818181818182</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C2">
-        <v>0.5378787878787878</v>
+        <v>0.541958041958042</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01893939393939394</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1136363636363636</v>
+        <v>0.1118881118881119</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006622516556291391</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="C3">
-        <v>0.05960264900662252</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01324503311258278</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6754966887417219</v>
+        <v>0.6787878787878788</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2450331125827815</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P4">
-        <v>0.6744186046511628</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2558139534883721</v>
+        <v>0.2826086956521739</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04797047970479705</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007380073800738007</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1070110701107011</v>
+        <v>0.09863945578231292</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2177121771217712</v>
+        <v>0.2210884353741497</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01476014760147601</v>
+        <v>0.01700680272108844</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1143911439114391</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="R6">
-        <v>0.1033210332103321</v>
+        <v>0.09863945578231292</v>
       </c>
       <c r="S6">
-        <v>0.3874538745387454</v>
+        <v>0.391156462585034</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1073446327683616</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02259887005649718</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="E7">
-        <v>0.005649717514124294</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="F7">
-        <v>0.06214689265536723</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1299435028248588</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01129943502824859</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1581920903954802</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="R7">
-        <v>0.1412429378531073</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="S7">
-        <v>0.3615819209039548</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1075</v>
+        <v>0.09799554565701558</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>0.022271714922049</v>
       </c>
       <c r="E8">
-        <v>0.0025</v>
+        <v>0.004454342984409799</v>
       </c>
       <c r="F8">
-        <v>0.05</v>
+        <v>0.06013363028953229</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1025</v>
+        <v>0.09799554565701558</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0125</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1525</v>
+        <v>0.1492204899777283</v>
       </c>
       <c r="R8">
-        <v>0.1125</v>
+        <v>0.1158129175946548</v>
       </c>
       <c r="S8">
-        <v>0.44</v>
+        <v>0.4409799554565701</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06477732793522267</v>
+        <v>0.06296296296296296</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01619433198380567</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="E9">
-        <v>0.004048582995951417</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="F9">
-        <v>0.0728744939271255</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07692307692307693</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02834008097165992</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1700404858299595</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R9">
-        <v>0.09716599190283401</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S9">
-        <v>0.4696356275303644</v>
+        <v>0.4703703703703704</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.101095197978096</v>
+        <v>0.1010023130300694</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02190395956192081</v>
+        <v>0.02004626060138782</v>
       </c>
       <c r="E10">
-        <v>0.002527379949452401</v>
+        <v>0.002313030069390902</v>
       </c>
       <c r="F10">
-        <v>0.09267059814658804</v>
+        <v>0.09097918272937548</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09435551811288964</v>
+        <v>0.09329221279876639</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006739679865206402</v>
+        <v>0.006939090208172706</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2055602358887953</v>
+        <v>0.2074016962220509</v>
       </c>
       <c r="R10">
-        <v>0.1069924178601516</v>
+        <v>0.1087124132613724</v>
       </c>
       <c r="S10">
-        <v>0.3681550126368998</v>
+        <v>0.369313801079414</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1814671814671815</v>
+        <v>0.177536231884058</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08108108108108109</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K11">
-        <v>0.1969111969111969</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L11">
-        <v>0.5366795366795367</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003861003861003861</v>
+        <v>0.003623188405797101</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7152777777777778</v>
+        <v>0.7189542483660131</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="K12">
-        <v>0.01388888888888889</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="L12">
-        <v>0.02777777777777778</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G13">
-        <v>0.6530612244897959</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3061224489795918</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02</v>
+        <v>0.01831501831501832</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.156</v>
+        <v>0.1684981684981685</v>
       </c>
       <c r="I15">
-        <v>0.116</v>
+        <v>0.1135531135531136</v>
       </c>
       <c r="J15">
-        <v>0.384</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="K15">
-        <v>0.064</v>
+        <v>0.05860805860805861</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.012</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.104</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.144</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01875</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="I16">
-        <v>0.08749999999999999</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="J16">
-        <v>0.43125</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.025</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08125</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.13125</v>
+        <v>0.1206896551724138</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02463054187192118</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1650246305418719</v>
+        <v>0.1614349775784753</v>
       </c>
       <c r="I17">
-        <v>0.1133004926108374</v>
+        <v>0.1098654708520179</v>
       </c>
       <c r="J17">
-        <v>0.3940886699507389</v>
+        <v>0.4013452914798206</v>
       </c>
       <c r="K17">
-        <v>0.07142857142857142</v>
+        <v>0.07847533632286996</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01724137931034483</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06896551724137931</v>
+        <v>0.06950672645739911</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.145320197044335</v>
+        <v>0.1390134529147982</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0321285140562249</v>
+        <v>0.03308823529411765</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2008032128514056</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="I18">
-        <v>0.09236947791164658</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="J18">
-        <v>0.357429718875502</v>
+        <v>0.3492647058823529</v>
       </c>
       <c r="K18">
-        <v>0.07630522088353414</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02409638554216868</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1124497991967871</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1044176706827309</v>
+        <v>0.1102941176470588</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01537216828478964</v>
+        <v>0.01618837380426785</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1868932038834951</v>
+        <v>0.1913171449595291</v>
       </c>
       <c r="I19">
-        <v>0.1108414239482201</v>
+        <v>0.1103752759381898</v>
       </c>
       <c r="J19">
-        <v>0.3689320388349515</v>
+        <v>0.3701250919793966</v>
       </c>
       <c r="K19">
-        <v>0.09304207119741101</v>
+        <v>0.0875643855776306</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02427184466019417</v>
+        <v>0.02281089036055924</v>
       </c>
       <c r="N19">
-        <v>0.0008090614886731392</v>
+        <v>0.0007358351729212656</v>
       </c>
       <c r="O19">
-        <v>0.09385113268608414</v>
+        <v>0.09345106696100074</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1059870550161812</v>
+        <v>0.1074319352465048</v>
       </c>
     </row>
   </sheetData>
